--- a/Cintia.xlsx
+++ b/Cintia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\smt3\P Sistem Keamanan Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5354C67A-D56E-4223-A856-0B247981E310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165131DF-08EA-4ABE-85EE-6D39C11A6A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="58">
   <si>
     <t>A</t>
   </si>
@@ -163,18 +163,12 @@
     <t xml:space="preserve">HURUF YANG SAMA DIHILANGKAN </t>
   </si>
   <si>
-    <t>Hasil ciphertext adalah OQUDHHDOADOCJTLWOUD</t>
-  </si>
-  <si>
     <t>CINTIA DWI CHRISTINAWATI</t>
   </si>
   <si>
     <t>Kunci geser 5</t>
   </si>
   <si>
-    <t>HNSYNFIBNHMWNXYNFBFYN</t>
-  </si>
-  <si>
     <t>HNSY</t>
   </si>
   <si>
@@ -190,10 +184,16 @@
     <t xml:space="preserve">      B6</t>
   </si>
   <si>
-    <t>FBFY</t>
-  </si>
-  <si>
-    <t>NN</t>
+    <t>HNSYNFIBNHMWNXYNSFBFYN</t>
+  </si>
+  <si>
+    <t>SFBF</t>
+  </si>
+  <si>
+    <t>YN</t>
+  </si>
+  <si>
+    <t>Hasil ciphertext adalah TGQYGMKNGTEWGXYGQMNMYG</t>
   </si>
 </sst>
 </file>
@@ -667,15 +667,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Z33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="14"/>
     </row>
@@ -847,7 +847,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -858,7 +858,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -868,7 +868,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G9" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -880,22 +880,22 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="K11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -915,7 +915,7 @@
         <v>45</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -1133,61 +1133,70 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
         <v>18</v>
       </c>
-      <c r="E28" t="s">
-        <v>20</v>
-      </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I28" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J28" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="L28" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M28" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N28" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="O28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P28" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="Q28" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="R28" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="S28" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="T28" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U28" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="V28" t="s">
+        <v>5</v>
+      </c>
+      <c r="W28" t="s">
+        <v>24</v>
+      </c>
+      <c r="X28" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
@@ -1195,66 +1204,75 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
         <v>16</v>
       </c>
-      <c r="E29" t="s">
-        <v>20</v>
-      </c>
       <c r="F29" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H29" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K29" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L29" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="M29" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="O29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P29" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q29" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="R29" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="S29" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="T29" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U29" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="V29" t="s">
+        <v>12</v>
+      </c>
+      <c r="W29" t="s">
+        <v>24</v>
+      </c>
+      <c r="X29" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
